--- a/Assets/Data/Excels/BattleEvent.xlsx
+++ b/Assets/Data/Excels/BattleEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DA8F20-91E5-4EC7-A62B-D766B0C8983C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58860BA2-C5B1-45A2-AF83-A47ECC53B9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31095" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>HitEffectPrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow_Projectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_ARROW_PROJECTILE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,6 +636,29 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/Excels/BattleEvent.xlsx
+++ b/Assets/Data/Excels/BattleEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58860BA2-C5B1-45A2-AF83-A47ECC53B9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2FFB4A-644B-4651-9296-51E32B9D559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33540" yWindow="3090" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>BE_ARROW_PROJECTILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_STING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sting_Collider</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,6 +671,29 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Data/Excels/BattleEvent.xlsx
+++ b/Assets/Data/Excels/BattleEvent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2FFB4A-644B-4651-9296-51E32B9D559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7B16D-551B-4668-B4C2-11D76D52B7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33540" yWindow="3090" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,114 +51,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Projectile</t>
-  </si>
-  <si>
-    <t>Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrefabName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:BattleEventType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum:BattleEventTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BE_FIRE_BALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slash_Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slash_Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum:BattleEventTriggerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_HEAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff</t>
+    <t>BE_SLASH_PROJECTILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_SLASH_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_ARROW_PROJECTILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_STING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15,20,25,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:StatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AffectStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:StatusEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_SLASH_PROJECTILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_SLASH_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitEffectPrefabName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrow_Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_ARROW_PROJECTILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_STING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sting_Collider</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -518,19 +479,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -541,19 +502,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -561,22 +522,22 @@
         <v>20000</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -584,22 +545,22 @@
         <v>20001</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -607,19 +568,19 @@
         <v>20002</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -630,68 +591,22 @@
         <v>20003</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>20004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>20005</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excels/BattleEvent.xlsx
+++ b/Assets/Data/Excels/BattleEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7B16D-551B-4668-B4C2-11D76D52B7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F04C182-BB60-41BA-BC71-D72B9272E307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,15 +111,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum:StatusEffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:StatReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:StatReferenceCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:StatusDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatReference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatReferenceCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stackable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyIntervalSeconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:BattleEventCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleEventCategory</t>
+  </si>
+  <si>
+    <t>BattleEventGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:BattleEventGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentStat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -458,12 +513,20 @@
     <col min="4" max="4" width="46.375" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
     <col min="6" max="6" width="34.5" customWidth="1"/>
-    <col min="7" max="7" width="39" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="19.25" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="14.75" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="23.75" customWidth="1"/>
+    <col min="16" max="16" width="15.125" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -471,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,19 +545,37 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -505,19 +586,37 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
+      <c r="M3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20000</v>
       </c>
@@ -528,19 +627,37 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20001</v>
       </c>
@@ -551,19 +668,37 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20002</v>
       </c>
@@ -574,19 +709,37 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20003</v>
       </c>
@@ -597,15 +750,33 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Assets/Data/Excels/BattleEvent.xlsx
+++ b/Assets/Data/Excels/BattleEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F04C182-BB60-41BA-BC71-D72B9272E307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8249AD4D-3720-4C9B-88F8-AFBE44258739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,15,20,25,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +171,18 @@
   </si>
   <si>
     <t>CurrentStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_COLLISION_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1.1,1.2,1.3,1.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,25 +553,25 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -586,34 +594,34 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -627,34 +635,34 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -668,34 +676,34 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -709,34 +717,34 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -750,34 +758,75 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excels/BattleEvent.xlsx
+++ b/Assets/Data/Excels/BattleEvent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8249AD4D-3720-4C9B-88F8-AFBE44258739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A9FC7E-C8E9-4DA6-AB4F-FC971D734C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,22 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:StatType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ApplyIntervalSeconds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:BattleEventCategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,11 +158,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1.1,1.2,1.3,1.4</t>
+    <t>LevelBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>enum:BattleEventBalanceDefine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -522,10 +505,10 @@
     <col min="5" max="5" width="36.25" customWidth="1"/>
     <col min="6" max="6" width="34.5" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
     <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="44.25" customWidth="1"/>
     <col min="12" max="12" width="16.375" customWidth="1"/>
     <col min="13" max="13" width="14.75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
@@ -534,7 +517,7 @@
     <col min="17" max="17" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -542,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -553,37 +536,31 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -594,37 +571,31 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20000</v>
       </c>
@@ -635,37 +606,31 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20001</v>
       </c>
@@ -676,37 +641,31 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20002</v>
       </c>
@@ -717,37 +676,31 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20003</v>
       </c>
@@ -758,75 +711,63 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20004</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excels/BattleEvent.xlsx
+++ b/Assets/Data/Excels/BattleEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A9FC7E-C8E9-4DA6-AB4F-FC971D734C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E694DF-11DB-41CE-8343-145B4C8C239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29955" yWindow="2280" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,17 +155,6 @@
   </si>
   <si>
     <t>BE_COLLISION_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelBalance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>enum:BattleEventBalanceDefine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K2" sqref="K2:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,7 +506,7 @@
     <col min="17" max="17" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -525,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -556,11 +545,8 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -591,11 +577,8 @@
       <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20000</v>
       </c>
@@ -626,11 +609,8 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20001</v>
       </c>
@@ -661,11 +641,8 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20002</v>
       </c>
@@ -696,11 +673,8 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20003</v>
       </c>
@@ -731,11 +705,8 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20004</v>
       </c>
@@ -765,9 +736,6 @@
       </c>
       <c r="J8" t="b">
         <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Excels/BattleEvent.xlsx
+++ b/Assets/Data/Excels/BattleEvent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E694DF-11DB-41CE-8343-145B4C8C239F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE856C9-24A3-45F7-B22D-E0C4212FEECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="2280" windowWidth="21600" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,22 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BE_SLASH_PROJECTILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_SLASH_RANGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_ARROW_PROJECTILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BE_STING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum:StatType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,7 +138,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BE_COLLISION_DAMAGE</t>
+    <t>BE_DAMAGE_ONE_SHOT_ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_DAMAGE_COLLISION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="43.25" customWidth="1"/>
     <col min="4" max="4" width="46.375" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
@@ -525,25 +517,25 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -557,25 +549,25 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -583,28 +575,28 @@
         <v>20000</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -615,126 +607,30 @@
         <v>20001</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
       <c r="J5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>20002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>20003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>20004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Excels/BattleEvent.xlsx
+++ b/Assets/Data/Excels/BattleEvent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TowerOfInfinity\Assets\Data\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TowerOfInfinity\Assets\Data\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE856C9-24A3-45F7-B22D-E0C4212FEECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20969856-0FF1-48F0-8C86-71CF38E533B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2130" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29790" yWindow="8205" windowWidth="25260" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,13 @@
   <si>
     <t>BE_DAMAGE_COLLISION</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE_KNOCKBACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KnockBack</t>
   </si>
 </sst>
 </file>
@@ -472,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,6 +641,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
